--- a/src/test/java/com/widget/poiexcel4j/excelfile/export3.xlsx
+++ b/src/test/java/com/widget/poiexcel4j/excelfile/export3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>#title</t>
   </si>
@@ -72,76 +72,49 @@
     <t>学校统一花名册</t>
   </si>
   <si>
-    <t>1010001</t>
-  </si>
-  <si>
     <t>盖伦</t>
   </si>
   <si>
     <t>六年级三班</t>
   </si>
   <si>
-    <t>1010002</t>
-  </si>
-  <si>
     <t>古尔丹</t>
   </si>
   <si>
     <t>一年级三班</t>
   </si>
   <si>
-    <t>1010003</t>
-  </si>
-  <si>
     <t>蒙多(被开除了)</t>
   </si>
   <si>
     <t>六年级一班</t>
   </si>
   <si>
-    <t>1010004</t>
-  </si>
-  <si>
     <t>萝卜特</t>
   </si>
   <si>
     <t>三年级二班</t>
   </si>
   <si>
-    <t>1010005</t>
-  </si>
-  <si>
     <t>奥拉基</t>
   </si>
   <si>
-    <t>1010006</t>
-  </si>
-  <si>
     <t>得嘞</t>
   </si>
   <si>
     <t>四年级二班</t>
   </si>
   <si>
-    <t>1010007</t>
-  </si>
-  <si>
     <t>瓜娃子</t>
   </si>
   <si>
     <t>五年级一班</t>
   </si>
   <si>
-    <t>1010008</t>
-  </si>
-  <si>
     <t>战三</t>
   </si>
   <si>
     <t>二年级一班</t>
-  </si>
-  <si>
-    <t>1010009</t>
   </si>
   <si>
     <t>李四</t>
@@ -609,126 +582,108 @@
       <c r="A4" s="6" t="n">
         <v>1.0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16.0" customHeight="true">
       <c r="A5" s="7" t="n">
         <v>2.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" ht="16.0" customHeight="true">
       <c r="A6" s="5" t="n">
         <v>3.0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="16.0" customHeight="true">
       <c r="A7" s="7" t="n">
         <v>4.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="16.0" customHeight="true">
       <c r="A8" s="6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="16.0" customHeight="true">
       <c r="A9" s="7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="16.0" customHeight="true">
       <c r="A10" s="6" t="n">
         <v>7.0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="16.0" customHeight="true">
       <c r="A11" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="16.0" customHeight="true">
       <c r="A12" s="6" t="n">
         <v>9.0</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
